--- a/Oprationsys.xlsx
+++ b/Oprationsys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tana pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ERP\ConicErpDeploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34E569C-3778-4688-B4B2-DA982927BA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27F0FFA-CF00-4700-BC24-3F3BCAEF3D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="3570" windowWidth="21105" windowHeight="10290" xr2:uid="{A4EC3867-F158-4AAF-B023-76F6465CA786}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4EC3867-F158-4AAF-B023-76F6465CA786}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="103">
   <si>
     <t>Id</t>
   </si>
@@ -97,6 +97,243 @@
   </si>
   <si>
     <t>ملغي</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>الغاء</t>
+  </si>
+  <si>
+    <t>danger</t>
+  </si>
+  <si>
+    <t>el-icon-s-release</t>
+  </si>
+  <si>
+    <t>Not Sure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غير مؤكدة </t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>غير مؤكدة</t>
+  </si>
+  <si>
+    <t>el-icon-check</t>
+  </si>
+  <si>
+    <t>Sure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مؤكدة </t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>مؤكدة</t>
+  </si>
+  <si>
+    <t>el-icon-finished</t>
+  </si>
+  <si>
+    <t>InventoryItem</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جديد </t>
+  </si>
+  <si>
+    <t>نشط</t>
+  </si>
+  <si>
+    <t>OrderInventory</t>
+  </si>
+  <si>
+    <t>StocktakingInventory</t>
+  </si>
+  <si>
+    <t>مرصد</t>
+  </si>
+  <si>
+    <t>غير مرصد</t>
+  </si>
+  <si>
+    <t>UnitItem</t>
+  </si>
+  <si>
+    <t>MenuItem</t>
+  </si>
+  <si>
+    <t>OriginItem</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>InventoryMovement</t>
+  </si>
+  <si>
+    <t>StockMovement</t>
+  </si>
+  <si>
+    <t>SalesInvoice</t>
+  </si>
+  <si>
+    <t>PurchaseInvoice</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حساب متحرك </t>
+  </si>
+  <si>
+    <t xml:space="preserve">حساب رئيسي </t>
+  </si>
+  <si>
+    <t>رئيسي</t>
+  </si>
+  <si>
+    <t>EntryAccounting</t>
+  </si>
+  <si>
+    <t>Membership</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>اشتراك فعال</t>
+  </si>
+  <si>
+    <t>فعال</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>غير نشط \ لا يوجد اشتركات فعالة</t>
+  </si>
+  <si>
+    <t>#FF0202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نشط  </t>
+  </si>
+  <si>
+    <t>مجمد</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>يوم اضافي</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>MembershipMovement</t>
+  </si>
+  <si>
+    <t>معلق</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>منتهي</t>
+  </si>
+  <si>
+    <t>Not Active</t>
+  </si>
+  <si>
+    <t>غير مؤكد</t>
+  </si>
+  <si>
+    <t>مؤكد</t>
+  </si>
+  <si>
+    <t>MembershipMovementOrder</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Cheque</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>جديد</t>
+  </si>
+  <si>
+    <t>BlackList</t>
+  </si>
+  <si>
+    <t>قائمة سوداء</t>
+  </si>
+  <si>
+    <t>#000000</t>
+  </si>
+  <si>
+    <t>DoneOut</t>
+  </si>
+  <si>
+    <t>تم تعويض</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>محسوب</t>
+  </si>
+  <si>
+    <t>تم احتساب</t>
+  </si>
+  <si>
+    <t>Out</t>
+  </si>
+  <si>
+    <t>تعويض</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غير نشط </t>
+  </si>
+  <si>
+    <t>SalayPayment</t>
+  </si>
+  <si>
+    <t>Not Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لم محتسب </t>
+  </si>
+  <si>
+    <t xml:space="preserve">محتسب </t>
   </si>
 </sst>
 </file>
@@ -107,7 +344,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -449,21 +686,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCE13BE-B2D7-48DA-AF27-22EC04279416}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.25" customWidth="1"/>
-    <col min="3" max="3" width="24.875" customWidth="1"/>
-    <col min="6" max="6" width="26.125" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +739,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11</v>
+      </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
@@ -533,7 +774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>65</v>
       </c>
@@ -568,7 +809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>65</v>
       </c>
@@ -603,7 +844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>65</v>
       </c>
@@ -636,6 +877,2516 @@
       </c>
       <c r="L5" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17">
+        <v>-1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19">
+        <v>-1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>-1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23">
+        <v>-1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25">
+        <v>-1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27">
+        <v>-1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29">
+        <v>-1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" t="s">
+        <v>54</v>
+      </c>
+      <c r="I31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" t="s">
+        <v>38</v>
+      </c>
+      <c r="L31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32">
+        <v>-1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" t="s">
+        <v>37</v>
+      </c>
+      <c r="K33" t="s">
+        <v>38</v>
+      </c>
+      <c r="L33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34">
+        <v>-1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" t="s">
+        <v>42</v>
+      </c>
+      <c r="K35" t="s">
+        <v>38</v>
+      </c>
+      <c r="L35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" t="s">
+        <v>36</v>
+      </c>
+      <c r="I36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" t="s">
+        <v>59</v>
+      </c>
+      <c r="K36" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37">
+        <v>-1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" t="s">
+        <v>28</v>
+      </c>
+      <c r="L37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K38" t="s">
+        <v>38</v>
+      </c>
+      <c r="L38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39">
+        <v>-1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" t="s">
+        <v>28</v>
+      </c>
+      <c r="L39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>-1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40" t="s">
+        <v>36</v>
+      </c>
+      <c r="I40" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" t="s">
+        <v>64</v>
+      </c>
+      <c r="K40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41">
+        <v>-1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" t="s">
+        <v>65</v>
+      </c>
+      <c r="H41" t="s">
+        <v>65</v>
+      </c>
+      <c r="I41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" t="s">
+        <v>66</v>
+      </c>
+      <c r="K41" t="s">
+        <v>28</v>
+      </c>
+      <c r="L41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" t="s">
+        <v>65</v>
+      </c>
+      <c r="H42" t="s">
+        <v>36</v>
+      </c>
+      <c r="I42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" t="s">
+        <v>42</v>
+      </c>
+      <c r="K42" t="s">
+        <v>38</v>
+      </c>
+      <c r="L42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" t="s">
+        <v>65</v>
+      </c>
+      <c r="H43" t="s">
+        <v>70</v>
+      </c>
+      <c r="I43" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" t="s">
+        <v>69</v>
+      </c>
+      <c r="K43" t="s">
+        <v>38</v>
+      </c>
+      <c r="L43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>71</v>
+      </c>
+      <c r="G44" t="s">
+        <v>65</v>
+      </c>
+      <c r="H44" t="s">
+        <v>72</v>
+      </c>
+      <c r="I44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" t="s">
+        <v>71</v>
+      </c>
+      <c r="K44" t="s">
+        <v>38</v>
+      </c>
+      <c r="L44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45">
+        <v>-2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" t="s">
+        <v>73</v>
+      </c>
+      <c r="H45" t="s">
+        <v>75</v>
+      </c>
+      <c r="I45" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" t="s">
+        <v>74</v>
+      </c>
+      <c r="K45" t="s">
+        <v>28</v>
+      </c>
+      <c r="L45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46">
+        <v>-1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" t="s">
+        <v>76</v>
+      </c>
+      <c r="G46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H46" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" t="s">
+        <v>76</v>
+      </c>
+      <c r="K46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>78</v>
+      </c>
+      <c r="G47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H47" t="s">
+        <v>70</v>
+      </c>
+      <c r="I47" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" t="s">
+        <v>78</v>
+      </c>
+      <c r="K47" t="s">
+        <v>33</v>
+      </c>
+      <c r="L47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" t="s">
+        <v>73</v>
+      </c>
+      <c r="H48" t="s">
+        <v>36</v>
+      </c>
+      <c r="I48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" t="s">
+        <v>79</v>
+      </c>
+      <c r="K48" t="s">
+        <v>38</v>
+      </c>
+      <c r="L48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" t="s">
+        <v>73</v>
+      </c>
+      <c r="H49" t="s">
+        <v>36</v>
+      </c>
+      <c r="I49" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" t="s">
+        <v>69</v>
+      </c>
+      <c r="K49" t="s">
+        <v>38</v>
+      </c>
+      <c r="L49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50" t="s">
+        <v>73</v>
+      </c>
+      <c r="H50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" t="s">
+        <v>71</v>
+      </c>
+      <c r="K50" t="s">
+        <v>38</v>
+      </c>
+      <c r="L50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51">
+        <v>-1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s">
+        <v>80</v>
+      </c>
+      <c r="H51" t="s">
+        <v>27</v>
+      </c>
+      <c r="I51" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51" t="s">
+        <v>28</v>
+      </c>
+      <c r="L51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>48</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>78</v>
+      </c>
+      <c r="G52" t="s">
+        <v>80</v>
+      </c>
+      <c r="H52" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" t="s">
+        <v>78</v>
+      </c>
+      <c r="K52" t="s">
+        <v>38</v>
+      </c>
+      <c r="L52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>49</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>79</v>
+      </c>
+      <c r="G53" t="s">
+        <v>80</v>
+      </c>
+      <c r="H53" t="s">
+        <v>36</v>
+      </c>
+      <c r="I53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" t="s">
+        <v>79</v>
+      </c>
+      <c r="K53" t="s">
+        <v>38</v>
+      </c>
+      <c r="L53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>50</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54">
+        <v>-1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" t="s">
+        <v>81</v>
+      </c>
+      <c r="H54" t="s">
+        <v>27</v>
+      </c>
+      <c r="I54" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54" t="s">
+        <v>28</v>
+      </c>
+      <c r="L54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>51</v>
+      </c>
+      <c r="B55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" t="s">
+        <v>81</v>
+      </c>
+      <c r="H55" t="s">
+        <v>36</v>
+      </c>
+      <c r="I55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" t="s">
+        <v>42</v>
+      </c>
+      <c r="K55" t="s">
+        <v>38</v>
+      </c>
+      <c r="L55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56">
+        <v>-1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" t="s">
+        <v>82</v>
+      </c>
+      <c r="H56" t="s">
+        <v>27</v>
+      </c>
+      <c r="I56" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" t="s">
+        <v>22</v>
+      </c>
+      <c r="K56" t="s">
+        <v>28</v>
+      </c>
+      <c r="L56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>53</v>
+      </c>
+      <c r="B57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>41</v>
+      </c>
+      <c r="G57" t="s">
+        <v>82</v>
+      </c>
+      <c r="H57" t="s">
+        <v>36</v>
+      </c>
+      <c r="I57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" t="s">
+        <v>42</v>
+      </c>
+      <c r="K57" t="s">
+        <v>38</v>
+      </c>
+      <c r="L57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>54</v>
+      </c>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58">
+        <v>-1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" t="s">
+        <v>83</v>
+      </c>
+      <c r="H58" t="s">
+        <v>27</v>
+      </c>
+      <c r="I58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" t="s">
+        <v>22</v>
+      </c>
+      <c r="K58" t="s">
+        <v>28</v>
+      </c>
+      <c r="L58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>55</v>
+      </c>
+      <c r="B59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" t="s">
+        <v>41</v>
+      </c>
+      <c r="G59" t="s">
+        <v>83</v>
+      </c>
+      <c r="H59" t="s">
+        <v>36</v>
+      </c>
+      <c r="I59" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" t="s">
+        <v>42</v>
+      </c>
+      <c r="K59" t="s">
+        <v>38</v>
+      </c>
+      <c r="L59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>56</v>
+      </c>
+      <c r="B60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60">
+        <v>-1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" t="s">
+        <v>84</v>
+      </c>
+      <c r="H60" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" t="s">
+        <v>22</v>
+      </c>
+      <c r="K60" t="s">
+        <v>28</v>
+      </c>
+      <c r="L60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>57</v>
+      </c>
+      <c r="B61" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" t="s">
+        <v>41</v>
+      </c>
+      <c r="G61" t="s">
+        <v>84</v>
+      </c>
+      <c r="H61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I61" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" t="s">
+        <v>42</v>
+      </c>
+      <c r="K61" t="s">
+        <v>38</v>
+      </c>
+      <c r="L61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>58</v>
+      </c>
+      <c r="B62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62">
+        <v>-1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" t="s">
+        <v>85</v>
+      </c>
+      <c r="H62" t="s">
+        <v>27</v>
+      </c>
+      <c r="I62" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" t="s">
+        <v>23</v>
+      </c>
+      <c r="K62" t="s">
+        <v>28</v>
+      </c>
+      <c r="L62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>59</v>
+      </c>
+      <c r="B63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>86</v>
+      </c>
+      <c r="G63" t="s">
+        <v>85</v>
+      </c>
+      <c r="H63" t="s">
+        <v>36</v>
+      </c>
+      <c r="I63" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" t="s">
+        <v>42</v>
+      </c>
+      <c r="K63" t="s">
+        <v>28</v>
+      </c>
+      <c r="L63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>60</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64">
+        <v>-3</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" t="s">
+        <v>73</v>
+      </c>
+      <c r="H64" t="s">
+        <v>27</v>
+      </c>
+      <c r="I64" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" t="s">
+        <v>26</v>
+      </c>
+      <c r="K64" t="s">
+        <v>28</v>
+      </c>
+      <c r="L64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>61</v>
+      </c>
+      <c r="B65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" t="s">
+        <v>65</v>
+      </c>
+      <c r="D65">
+        <v>-2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>88</v>
+      </c>
+      <c r="G65" t="s">
+        <v>65</v>
+      </c>
+      <c r="H65" t="s">
+        <v>65</v>
+      </c>
+      <c r="I65" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" t="s">
+        <v>88</v>
+      </c>
+      <c r="K65" t="s">
+        <v>28</v>
+      </c>
+      <c r="L65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>62</v>
+      </c>
+      <c r="B66" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66">
+        <v>-2</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>91</v>
+      </c>
+      <c r="G66" t="s">
+        <v>80</v>
+      </c>
+      <c r="H66" t="s">
+        <v>27</v>
+      </c>
+      <c r="I66" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" t="s">
+        <v>91</v>
+      </c>
+      <c r="K66" t="s">
+        <v>28</v>
+      </c>
+      <c r="L66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>63</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" t="s">
+        <v>80</v>
+      </c>
+      <c r="D67">
+        <v>-3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" t="s">
+        <v>93</v>
+      </c>
+      <c r="G67" t="s">
+        <v>80</v>
+      </c>
+      <c r="H67" t="s">
+        <v>31</v>
+      </c>
+      <c r="I67" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" t="s">
+        <v>94</v>
+      </c>
+      <c r="K67" t="s">
+        <v>28</v>
+      </c>
+      <c r="L67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>64</v>
+      </c>
+      <c r="B68" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>96</v>
+      </c>
+      <c r="G68" t="s">
+        <v>80</v>
+      </c>
+      <c r="H68" t="s">
+        <v>36</v>
+      </c>
+      <c r="I68" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" t="s">
+        <v>96</v>
+      </c>
+      <c r="K68" t="s">
+        <v>28</v>
+      </c>
+      <c r="L68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>62</v>
+      </c>
+      <c r="C69" t="s">
+        <v>97</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G69" t="s">
+        <v>97</v>
+      </c>
+      <c r="H69" t="s">
+        <v>31</v>
+      </c>
+      <c r="J69" t="s">
+        <v>42</v>
+      </c>
+      <c r="K69" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" t="s">
+        <v>97</v>
+      </c>
+      <c r="D70">
+        <v>-1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>98</v>
+      </c>
+      <c r="G70" t="s">
+        <v>99</v>
+      </c>
+      <c r="H70" t="s">
+        <v>27</v>
+      </c>
+      <c r="J70" t="s">
+        <v>98</v>
+      </c>
+      <c r="K70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>100</v>
+      </c>
+      <c r="C71" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>101</v>
+      </c>
+      <c r="G71" t="s">
+        <v>99</v>
+      </c>
+      <c r="H71" t="s">
+        <v>31</v>
+      </c>
+      <c r="J71" t="s">
+        <v>101</v>
+      </c>
+      <c r="K71" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>3</v>
+      </c>
+      <c r="B72" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" t="s">
+        <v>99</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>102</v>
+      </c>
+      <c r="G72" t="s">
+        <v>99</v>
+      </c>
+      <c r="H72" t="s">
+        <v>36</v>
+      </c>
+      <c r="J72" t="s">
+        <v>102</v>
+      </c>
+      <c r="K72" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Oprationsys.xlsx
+++ b/Oprationsys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ERP\ConicErpDeploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27F0FFA-CF00-4700-BC24-3F3BCAEF3D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C1E29F-D659-4AFC-90CE-1FE69B74B29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4EC3867-F158-4AAF-B023-76F6465CA786}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="103">
   <si>
     <t>Id</t>
   </si>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCE13BE-B2D7-48DA-AF27-22EC04279416}">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,9 +930,6 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
       <c r="F7" t="s">
         <v>30</v>
       </c>
@@ -968,9 +965,6 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
       <c r="F8" t="s">
         <v>35</v>
       </c>
@@ -1044,9 +1038,6 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
       <c r="F10" t="s">
         <v>41</v>
       </c>
@@ -1120,9 +1111,6 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
       <c r="F12" t="s">
         <v>41</v>
       </c>
@@ -1196,9 +1184,6 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
       <c r="F14" t="s">
         <v>41</v>
       </c>
@@ -1272,9 +1257,6 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
       <c r="F16" t="s">
         <v>41</v>
       </c>
@@ -1348,9 +1330,6 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
       <c r="F18" t="s">
         <v>41</v>
       </c>
@@ -1424,9 +1403,6 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
       <c r="F20" t="s">
         <v>41</v>
       </c>
@@ -1500,9 +1476,6 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
       <c r="F22" t="s">
         <v>41</v>
       </c>
@@ -1576,9 +1549,6 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" t="s">
-        <v>12</v>
-      </c>
       <c r="F24" t="s">
         <v>41</v>
       </c>
@@ -1652,9 +1622,6 @@
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
-        <v>12</v>
-      </c>
       <c r="F26" t="s">
         <v>41</v>
       </c>
@@ -1728,9 +1695,6 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" t="s">
-        <v>12</v>
-      </c>
       <c r="F28" t="s">
         <v>41</v>
       </c>
@@ -1804,9 +1768,6 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" t="s">
-        <v>12</v>
-      </c>
       <c r="F30" t="s">
         <v>30</v>
       </c>
@@ -1918,9 +1879,6 @@
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33" t="s">
-        <v>12</v>
-      </c>
       <c r="F33" t="s">
         <v>41</v>
       </c>
@@ -1994,9 +1952,6 @@
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35" t="s">
-        <v>12</v>
-      </c>
       <c r="F35" t="s">
         <v>57</v>
       </c>
@@ -2032,9 +1987,6 @@
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" t="s">
-        <v>12</v>
-      </c>
       <c r="F36" t="s">
         <v>58</v>
       </c>
@@ -2108,9 +2060,6 @@
       <c r="D38">
         <v>0</v>
       </c>
-      <c r="E38" t="s">
-        <v>12</v>
-      </c>
       <c r="F38" t="s">
         <v>41</v>
       </c>
@@ -2260,9 +2209,6 @@
       <c r="D42">
         <v>0</v>
       </c>
-      <c r="E42" t="s">
-        <v>12</v>
-      </c>
       <c r="F42" t="s">
         <v>68</v>
       </c>
@@ -2298,9 +2244,6 @@
       <c r="D43">
         <v>1</v>
       </c>
-      <c r="E43" t="s">
-        <v>12</v>
-      </c>
       <c r="F43" t="s">
         <v>69</v>
       </c>
@@ -2336,9 +2279,6 @@
       <c r="D44">
         <v>2</v>
       </c>
-      <c r="E44" t="s">
-        <v>12</v>
-      </c>
       <c r="F44" t="s">
         <v>71</v>
       </c>
@@ -2374,9 +2314,6 @@
       <c r="D45">
         <v>-2</v>
       </c>
-      <c r="E45" t="s">
-        <v>12</v>
-      </c>
       <c r="F45" t="s">
         <v>74</v>
       </c>
@@ -2412,9 +2349,6 @@
       <c r="D46">
         <v>-1</v>
       </c>
-      <c r="E46" t="s">
-        <v>12</v>
-      </c>
       <c r="F46" t="s">
         <v>76</v>
       </c>
@@ -2450,9 +2384,6 @@
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47" t="s">
-        <v>12</v>
-      </c>
       <c r="F47" t="s">
         <v>78</v>
       </c>
@@ -2488,9 +2419,6 @@
       <c r="D48">
         <v>1</v>
       </c>
-      <c r="E48" t="s">
-        <v>12</v>
-      </c>
       <c r="F48" t="s">
         <v>79</v>
       </c>
@@ -2526,9 +2454,6 @@
       <c r="D49">
         <v>2</v>
       </c>
-      <c r="E49" t="s">
-        <v>12</v>
-      </c>
       <c r="F49" t="s">
         <v>69</v>
       </c>
@@ -2564,9 +2489,6 @@
       <c r="D50">
         <v>3</v>
       </c>
-      <c r="E50" t="s">
-        <v>12</v>
-      </c>
       <c r="F50" t="s">
         <v>71</v>
       </c>
@@ -2640,9 +2562,6 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52" t="s">
-        <v>12</v>
-      </c>
       <c r="F52" t="s">
         <v>78</v>
       </c>
@@ -2754,9 +2673,6 @@
       <c r="D55">
         <v>0</v>
       </c>
-      <c r="E55" t="s">
-        <v>12</v>
-      </c>
       <c r="F55" t="s">
         <v>41</v>
       </c>
@@ -2830,9 +2746,6 @@
       <c r="D57">
         <v>0</v>
       </c>
-      <c r="E57" t="s">
-        <v>12</v>
-      </c>
       <c r="F57" t="s">
         <v>41</v>
       </c>
@@ -2906,9 +2819,6 @@
       <c r="D59">
         <v>0</v>
       </c>
-      <c r="E59" t="s">
-        <v>12</v>
-      </c>
       <c r="F59" t="s">
         <v>41</v>
       </c>
@@ -2982,9 +2892,6 @@
       <c r="D61">
         <v>0</v>
       </c>
-      <c r="E61" t="s">
-        <v>12</v>
-      </c>
       <c r="F61" t="s">
         <v>41</v>
       </c>
@@ -3058,9 +2965,6 @@
       <c r="D63">
         <v>0</v>
       </c>
-      <c r="E63" t="s">
-        <v>12</v>
-      </c>
       <c r="F63" t="s">
         <v>86</v>
       </c>
@@ -3134,9 +3038,6 @@
       <c r="D65">
         <v>-2</v>
       </c>
-      <c r="E65" t="s">
-        <v>12</v>
-      </c>
       <c r="F65" t="s">
         <v>88</v>
       </c>
@@ -3209,9 +3110,6 @@
       </c>
       <c r="D67">
         <v>-3</v>
-      </c>
-      <c r="E67" t="s">
-        <v>12</v>
       </c>
       <c r="F67" t="s">
         <v>93</v>

--- a/Oprationsys.xlsx
+++ b/Oprationsys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ERP\ConicErpDeploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C1E29F-D659-4AFC-90CE-1FE69B74B29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA9DA33-8DDE-46C1-B437-1409F5BF7222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4EC3867-F158-4AAF-B023-76F6465CA786}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{A4EC3867-F158-4AAF-B023-76F6465CA786}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -324,9 +324,6 @@
     <t xml:space="preserve">غير نشط </t>
   </si>
   <si>
-    <t>SalayPayment</t>
-  </si>
-  <si>
     <t>Not Done</t>
   </si>
   <si>
@@ -334,6 +331,9 @@
   </si>
   <si>
     <t xml:space="preserve">محتسب </t>
+  </si>
+  <si>
+    <t>SalaryPayment</t>
   </si>
 </sst>
 </file>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCE13BE-B2D7-48DA-AF27-22EC04279416}">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,6 +697,7 @@
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" customWidth="1"/>
     <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
     <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
   </cols>
@@ -3217,7 +3218,7 @@
         <v>98</v>
       </c>
       <c r="G70" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H70" t="s">
         <v>27</v>
@@ -3234,25 +3235,25 @@
         <v>3</v>
       </c>
       <c r="B71" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" t="s">
+        <v>102</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
         <v>100</v>
       </c>
-      <c r="C71" t="s">
-        <v>99</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="F71" t="s">
-        <v>101</v>
-      </c>
       <c r="G71" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H71" t="s">
         <v>31</v>
       </c>
       <c r="J71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K71" t="s">
         <v>33</v>
@@ -3266,22 +3267,22 @@
         <v>92</v>
       </c>
       <c r="C72" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="F72" t="s">
+        <v>101</v>
+      </c>
+      <c r="G72" t="s">
         <v>102</v>
-      </c>
-      <c r="G72" t="s">
-        <v>99</v>
       </c>
       <c r="H72" t="s">
         <v>36</v>
       </c>
       <c r="J72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K72" t="s">
         <v>33</v>

--- a/Oprationsys.xlsx
+++ b/Oprationsys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ERP\ConicErpDeploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA9DA33-8DDE-46C1-B437-1409F5BF7222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FFAA08-9E65-49F8-8918-327881D5EA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{A4EC3867-F158-4AAF-B023-76F6465CA786}"/>
+    <workbookView xWindow="2415" yWindow="1335" windowWidth="20490" windowHeight="10920" xr2:uid="{A4EC3867-F158-4AAF-B023-76F6465CA786}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCE13BE-B2D7-48DA-AF27-22EC04279416}">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,6 +966,9 @@
       <c r="D8">
         <v>1</v>
       </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
       <c r="F8" t="s">
         <v>35</v>
       </c>
